--- a/mytimeheets/timesheet.xlsx
+++ b/mytimeheets/timesheet.xlsx
@@ -13,6 +13,32 @@
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>DAY</t>
+  </si>
+  <si>
+    <t>TIME SPEND</t>
+  </si>
+  <si>
+    <t>REMARKS</t>
+  </si>
+  <si>
+    <t>MONDAY</t>
+  </si>
+  <si>
+    <t>log-in 10.30 am and log out 6.30</t>
+  </si>
+  <si>
+    <t>create git and repository(3hrs)</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -46,8 +72,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -349,12 +376,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>45159</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
